--- a/tools/bsi/bs-it-gs-2023-sys-it-systeme.xlsx
+++ b/tools/bsi/bs-it-gs-2023-sys-it-systeme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/bsi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356BB613-07C8-1C4D-BB0C-1641CECCAF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB930DC9-C4B8-DE40-AF34-AF0DB5781432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12669,9 +12669,6 @@
     <t>framework_urn</t>
   </si>
   <si>
-    <t>urn:intuitem:risk:framework:bs-it-gs-2023-con-konzeption-und-vorgehensweisen</t>
-  </si>
-  <si>
     <t>framework_ref_id</t>
   </si>
   <si>
@@ -12694,15 +12691,25 @@
   </si>
   <si>
     <t>IT-Grundschutz-Kompendium – Werkzeug für Informationssicherheit - SYS: IT-Systeme</t>
+  </si>
+  <si>
+    <t>urn:intuitem:risk:framework:bs-it-gs-2023-sys-it-systeme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -12756,21 +12763,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -13079,7 +13089,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="242" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13093,8 +13103,8 @@
       <c r="A1" s="2" t="s">
         <v>4200</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4221</v>
+      <c r="B1" s="6" t="s">
+        <v>4220</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -13118,7 +13128,7 @@
         <v>4204</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -13126,7 +13136,7 @@
         <v>4205</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -13165,29 +13175,29 @@
       <c r="A10" s="2" t="s">
         <v>4214</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>4215</v>
+      <c r="B10" s="6" t="s">
+        <v>4223</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>4207</v>
@@ -13195,18 +13205,18 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>4219</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>4220</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>4220</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="15" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>5</v>
